--- a/Project_Notebook.xlsx
+++ b/Project_Notebook.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\keundong\Documents\UiPath\LoginProcess_Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57A93B8C-747A-4B79-B31D-E9DD45595193}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C491AEB4-2161-49E7-9821-B18A36432BEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="1170" windowWidth="21600" windowHeight="11385" xr2:uid="{CEA043F9-B9CC-4A62-BD5F-6FF44D9B0F3D}"/>
+    <workbookView xWindow="2625" yWindow="2565" windowWidth="21600" windowHeight="11385" activeTab="4" xr2:uid="{CEA043F9-B9CC-4A62-BD5F-6FF44D9B0F3D}"/>
   </bookViews>
   <sheets>
     <sheet name="Scratchpad" sheetId="6" r:id="rId1"/>
@@ -31,7 +31,6 @@
     <definedName name="DatePlusWorkingDays">Date!$B$9</definedName>
     <definedName name="DateText">Date!$B$19</definedName>
     <definedName name="Days">Date!$B$7</definedName>
-    <definedName name="di">Scratchpad!$B$2</definedName>
     <definedName name="FileExtension">File!$B$9</definedName>
     <definedName name="FileName">File!$B$8</definedName>
     <definedName name="FileNameNoExtension">File!$B$10</definedName>
@@ -56,16 +55,13 @@
     <definedName name="Replace">Text!$B$11</definedName>
     <definedName name="Result">Text!$B$12</definedName>
     <definedName name="Search">Text!$B$10</definedName>
-    <definedName name="startTime">Scratchpad!$B$4</definedName>
     <definedName name="Text_Input">Text!$B$4</definedName>
     <definedName name="ThisMonthFirstWorkingDay">Date!$B$15</definedName>
     <definedName name="ThisMonthLastWorkingDay">Date!$C$15</definedName>
     <definedName name="Today">Date!$B$12</definedName>
-    <definedName name="totalWorkHours">Scratchpad!$B$5</definedName>
     <definedName name="Trimmed">Text!$B$5</definedName>
     <definedName name="TwoDecimals">Number!$B$7</definedName>
     <definedName name="UpperCase">Text!$B$7</definedName>
-    <definedName name="wp">Scratchpad!$B$3</definedName>
     <definedName name="YYYYMMDD">Date!$B$10</definedName>
     <definedName name="비즈메카">Scratchpad!$B$1</definedName>
   </definedNames>
@@ -87,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="90">
   <si>
     <t>Last month's dates (First and Last)</t>
   </si>
@@ -336,9 +332,6 @@
   </si>
   <si>
     <t>Your Project Notebook is intended to use Excel formulas for data manipulation and calculations  It includes several samples sheets to get you started, but you have the freedom to do anything you can do in Excel.</t>
-  </si>
-  <si>
-    <t>C:\temp\Untitled Document.docx</t>
   </si>
   <si>
     <t>Preferred Format</t>
@@ -360,19 +353,7 @@
     <t>https://ezsso.bizmeka.com/sso/ssoLogin.do</t>
   </si>
   <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>pw</t>
-  </si>
-  <si>
-    <t>startTime</t>
-  </si>
-  <si>
-    <t>totalWorkHours</t>
-  </si>
-  <si>
-    <t>empty</t>
+    <t>C:\Users\keundong\Documents\PersonalData.xlsx</t>
   </si>
 </sst>
 </file>
@@ -1495,8 +1476,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95188A8B-20B9-44C0-8B2D-2363D0E3925F}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1507,43 +1488,14 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1" t="s">
         <v>88</v>
       </c>
-      <c r="B1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>90</v>
-      </c>
-      <c r="B2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>91</v>
-      </c>
-      <c r="B3" t="s">
-        <v>94</v>
-      </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B4" s="32" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>93</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
+      <c r="B4" s="32"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" s="32"/>
@@ -1584,7 +1536,7 @@
     </row>
     <row r="2" spans="1:4" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="39" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B2" s="40"/>
       <c r="C2" s="40"/>
@@ -1599,15 +1551,15 @@
       </c>
       <c r="B4" s="2">
         <f ca="1">TODAY()</f>
-        <v>45101</v>
+        <v>45103</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B6" t="s">
         <v>84</v>
-      </c>
-      <c r="B6" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -1624,7 +1576,7 @@
       </c>
       <c r="B8" s="28" t="str">
         <f ca="1">TEXT(Date_Input+Days, preferred_date_format)</f>
-        <v>2023-07-01</v>
+        <v>2023-07-03</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -1633,7 +1585,7 @@
       </c>
       <c r="B9" s="28" t="str">
         <f ca="1">TEXT(WORKDAY(Date_Input, Days),preferred_date_format)</f>
-        <v>2023-07-04</v>
+        <v>2023-07-05</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -1642,7 +1594,7 @@
       </c>
       <c r="B10" s="29" t="str">
         <f ca="1">TEXT(Date_Input,"YYYYMMDD")</f>
-        <v>20230624</v>
+        <v>20230626</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -1651,7 +1603,7 @@
       </c>
       <c r="B12" s="28" t="str">
         <f ca="1">TEXT(TODAY(), preferred_date_format)</f>
-        <v>2023-06-24</v>
+        <v>2023-06-26</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -1660,15 +1612,15 @@
       </c>
       <c r="B13" s="28" t="str">
         <f ca="1">TEXT(TODAY()-WEEKDAY(TODAY(),2)-6, preferred_date_format)</f>
-        <v>2023-06-12</v>
+        <v>2023-06-19</v>
       </c>
       <c r="C13" s="28" t="str">
         <f ca="1">TEXT(LastWeekMonday+4, preferred_date_format)</f>
-        <v>2023-06-16</v>
+        <v>2023-06-23</v>
       </c>
       <c r="D13" s="30" t="str">
         <f ca="1">TEXT(LastWeekFriday+2, preferred_date_format)</f>
-        <v>2023-06-18</v>
+        <v>2023-06-25</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -1830,7 +1782,7 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="31" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B30" t="str">
         <f>preferred_date_format</f>
@@ -2237,8 +2189,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B15AA95-D2AA-4AD6-8E83-DBFAD20B8498}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2287,7 +2239,7 @@
         <v>40</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -2302,7 +2254,7 @@
       </c>
       <c r="B8" s="6" t="str">
         <f>TRIM(RIGHT(SUBSTITUTE(B6,"\",REPT(" ",LEN(B6))),LEN(B6)))</f>
-        <v>Untitled Document.docx</v>
+        <v>PersonalData.xlsx</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -2311,7 +2263,7 @@
       </c>
       <c r="B9" s="6" t="str">
         <f>TRIM(RIGHT(SUBSTITUTE(B8,".",REPT(" ",LEN(B8))),LEN(B8)))</f>
-        <v>docx</v>
+        <v>xlsx</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -2320,7 +2272,7 @@
       </c>
       <c r="B10" s="6" t="str">
         <f>LEFT(B8, LEN(B8)-LEN(B9)-1)</f>
-        <v>Untitled Document</v>
+        <v>PersonalData</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2329,7 +2281,7 @@
       </c>
       <c r="B11" s="9" t="str">
         <f>LEFT(B6, LEN(B6)-LEN(B8))</f>
-        <v>C:\temp\</v>
+        <v>C:\Users\keundong\Documents\</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -2338,7 +2290,7 @@
       </c>
       <c r="B15" t="str">
         <f>FileNameNoExtension &amp; "." &amp; FileExtension</f>
-        <v>Untitled Document.docx</v>
+        <v>PersonalData.xlsx</v>
       </c>
     </row>
   </sheetData>

--- a/Project_Notebook.xlsx
+++ b/Project_Notebook.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\keundong\Documents\UiPath\LoginProcess_Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C491AEB4-2161-49E7-9821-B18A36432BEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB37101A-1653-4B15-96A7-C3DBD8E2FA91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2625" yWindow="2565" windowWidth="21600" windowHeight="11385" activeTab="4" xr2:uid="{CEA043F9-B9CC-4A62-BD5F-6FF44D9B0F3D}"/>
+    <workbookView xWindow="6840" yWindow="1980" windowWidth="21600" windowHeight="11385" xr2:uid="{CEA043F9-B9CC-4A62-BD5F-6FF44D9B0F3D}"/>
   </bookViews>
   <sheets>
     <sheet name="Scratchpad" sheetId="6" r:id="rId1"/>
@@ -62,6 +62,7 @@
     <definedName name="Trimmed">Text!$B$5</definedName>
     <definedName name="TwoDecimals">Number!$B$7</definedName>
     <definedName name="UpperCase">Text!$B$7</definedName>
+    <definedName name="website">Scratchpad!$B$1</definedName>
     <definedName name="YYYYMMDD">Date!$B$10</definedName>
     <definedName name="비즈메카">Scratchpad!$B$1</definedName>
   </definedNames>
@@ -83,7 +84,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="89">
   <si>
     <t>Last month's dates (First and Last)</t>
   </si>
@@ -348,9 +349,6 @@
   </si>
   <si>
     <t>website</t>
-  </si>
-  <si>
-    <t>https://ezsso.bizmeka.com/sso/ssoLogin.do</t>
   </si>
   <si>
     <t>C:\Users\keundong\Documents\PersonalData.xlsx</t>
@@ -1476,8 +1474,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95188A8B-20B9-44C0-8B2D-2363D0E3925F}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1489,9 +1487,6 @@
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>87</v>
-      </c>
-      <c r="B1" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -1551,7 +1546,7 @@
       </c>
       <c r="B4" s="2">
         <f ca="1">TODAY()</f>
-        <v>45103</v>
+        <v>45270</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1576,7 +1571,7 @@
       </c>
       <c r="B8" s="28" t="str">
         <f ca="1">TEXT(Date_Input+Days, preferred_date_format)</f>
-        <v>2023-07-03</v>
+        <v>2023-12-17</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -1585,7 +1580,7 @@
       </c>
       <c r="B9" s="28" t="str">
         <f ca="1">TEXT(WORKDAY(Date_Input, Days),preferred_date_format)</f>
-        <v>2023-07-05</v>
+        <v>2023-12-19</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -1594,7 +1589,7 @@
       </c>
       <c r="B10" s="29" t="str">
         <f ca="1">TEXT(Date_Input,"YYYYMMDD")</f>
-        <v>20230626</v>
+        <v>20231210</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -1603,7 +1598,7 @@
       </c>
       <c r="B12" s="28" t="str">
         <f ca="1">TEXT(TODAY(), preferred_date_format)</f>
-        <v>2023-06-26</v>
+        <v>2023-12-10</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -1612,15 +1607,15 @@
       </c>
       <c r="B13" s="28" t="str">
         <f ca="1">TEXT(TODAY()-WEEKDAY(TODAY(),2)-6, preferred_date_format)</f>
-        <v>2023-06-19</v>
+        <v>2023-11-27</v>
       </c>
       <c r="C13" s="28" t="str">
         <f ca="1">TEXT(LastWeekMonday+4, preferred_date_format)</f>
-        <v>2023-06-23</v>
+        <v>2023-12-01</v>
       </c>
       <c r="D13" s="30" t="str">
         <f ca="1">TEXT(LastWeekFriday+2, preferred_date_format)</f>
-        <v>2023-06-25</v>
+        <v>2023-12-03</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -1629,11 +1624,11 @@
       </c>
       <c r="B14" s="28" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY())-1, 1), preferred_date_format)</f>
-        <v>2023-05-01</v>
+        <v>2023-11-01</v>
       </c>
       <c r="C14" s="28" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), 0), preferred_date_format)</f>
-        <v>2023-05-31</v>
+        <v>2023-11-30</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -1642,11 +1637,11 @@
       </c>
       <c r="B15" s="28" t="str">
         <f ca="1">TEXT(WORKDAY(DATE(YEAR(TODAY()),MONTH(TODAY()),1)-1,1), preferred_date_format)</f>
-        <v>2023-06-01</v>
+        <v>2023-12-01</v>
       </c>
       <c r="C15" s="28" t="str">
         <f ca="1">TEXT(WORKDAY(DATE(YEAR(TODAY()),MONTH(TODAY())+1,1),-1), preferred_date_format)</f>
-        <v>2023-06-30</v>
+        <v>2023-12-29</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -2189,7 +2184,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B15AA95-D2AA-4AD6-8E83-DBFAD20B8498}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
@@ -2239,7 +2234,7 @@
         <v>40</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
